--- a/test_data/backup_test.xlsx
+++ b/test_data/backup_test.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -67,33 +67,142 @@
     <t xml:space="preserve">get    </t>
   </si>
   <si>
+    <t xml:space="preserve">{'show_env': 1} </t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>1.023141</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"1"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"450c94bc-84ac-4e0b-95d2-7724b94cb282","X-Request-Start":"1530671965288"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=1"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 2}</t>
+  </si>
+  <si>
+    <t>1.000872</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"2"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"ce17285f-a191-4710-9c9e-7b7fabd38923","X-Request-Start":"1530671966441"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=2"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 3}</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>1.690857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"3"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"65c8072c-7a84-4f04-b281-3363fe20a0b6","X-Request-Start":"1530671967630"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=3"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 4}</t>
+  </si>
+  <si>
+    <t>3.959362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"4"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1145","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"63331993-6498-44e7-831b-0867ba267463","X-Request-Start":"1530671969470"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=4"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 5}</t>
+  </si>
+  <si>
+    <t>1.007563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"5"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"7914fb07-1909-4b94-b50c-2dd5bdfd2a2c","X-Request-Start":"1530671973594"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=5"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 6}</t>
+  </si>
+  <si>
+    <t>0.99555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"6"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"c7e0c014-86c8-4e82-8cc1-2633c57573ce","X-Request-Start":"1530671974746"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=6"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 7}</t>
+  </si>
+  <si>
+    <t>0.997158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"7"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"232af100-a7ff-473b-a38c-560ae680bb14","X-Request-Start":"1530671975889"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=7"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 8}</t>
+  </si>
+  <si>
+    <t>1.003037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"8"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"fc1ca354-57d5-4ef6-9fce-34bfc522d9c8","X-Request-Start":"1530671977040"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=8"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 9}</t>
+  </si>
+  <si>
+    <t>0.977778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"9"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"cc67a902-7e07-473e-bb6f-477386aa1123","X-Request-Start":"1530671978264"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=9"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 10}</t>
+  </si>
+  <si>
+    <t>0.947387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"10"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"bdb042cf-0b5f-49d1-91bd-00627b3fe6ca","X-Request-Start":"1530671979363"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=10"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 11}</t>
+  </si>
+  <si>
+    <t>1.020851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"11"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"3","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"9237b259-9efb-439a-a166-6536f60de8da","X-Request-Start":"1530671980532"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=11"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 12}</t>
+  </si>
+  <si>
+    <t>1.592219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connection":"close","Content-Length":"2","Host":"httpbin.org","User-Agent":"python-requests/2.19.1"},"origin":"122.226.183.115","url":"https://httpbin.org/get"}
+</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>2.236922</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connection":"close","Content-Length":"2","Host":"httpbin.org","User-Agent":"python-requests/2.18.4"},"origin":"122.226.183.86","url":"https://httpbin.org/get"}
-</t>
-  </si>
-  <si>
-    <t>1.024371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connection":"close","Content-Length":"2","Host":"httpbin.org","User-Agent":"python-requests/2.18.4"},"origin":"61.242.42.165","url":"https://httpbin.org/get"}
-</t>
-  </si>
-  <si>
-    <t>close</t>
   </si>
 </sst>
 </file>
@@ -429,7 +538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,13 +636,13 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
       <c r="H3" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -542,13 +651,13 @@
         <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -562,13 +671,331 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="n">
+        <v>200</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="n">
+        <v>201</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
         <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="n">
+        <v>200</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="n">
+        <v>201</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="n">
+        <v>200</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="n">
+        <v>201</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +1072,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -668,7 +1095,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -691,13 +1118,13 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -711,7 +1138,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -734,7 +1161,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -757,13 +1184,13 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/backup_test.xlsx
+++ b/test_data/backup_test.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
@@ -76,26 +76,26 @@
     <t>200</t>
   </si>
   <si>
-    <t>1.023141</t>
+    <t>9.416401</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t xml:space="preserve">{"args":{"show_env":"1"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"450c94bc-84ac-4e0b-95d2-7724b94cb282","X-Request-Start":"1530671965288"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=1"}
+    <t xml:space="preserve">{"args":{"show_env":"1"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.112","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"8b5d4b2a-f5a6-4987-8151-393c9bcc15a0","X-Request-Start":"1530706816216"},"origin":"122.226.183.112","url":"https://httpbin.org/get?show_env=1"}
 </t>
   </si>
   <si>
     <t>{'show_env': 2}</t>
   </si>
   <si>
-    <t>1.000872</t>
+    <t>1.207248</t>
   </si>
   <si>
     <t>fail</t>
   </si>
   <si>
-    <t xml:space="preserve">{"args":{"show_env":"2"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"ce17285f-a191-4710-9c9e-7b7fabd38923","X-Request-Start":"1530671966441"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=2"}
+    <t xml:space="preserve">{"args":{"show_env":"2"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.114","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"d7be6d4a-91c0-4f69-a0ba-93a4031ad25b","X-Request-Start":"1530706817775"},"origin":"122.226.183.114","url":"https://httpbin.org/get?show_env=2"}
 </t>
   </si>
   <si>
@@ -105,100 +105,100 @@
     <t>close</t>
   </si>
   <si>
-    <t>1.690857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"3"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"65c8072c-7a84-4f04-b281-3363fe20a0b6","X-Request-Start":"1530671967630"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=3"}
+    <t>1.114428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"3"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"014a5592-23c3-45db-bbc0-f4336d9ac864","X-Request-Start":"1530706819114"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=3"}
 </t>
   </si>
   <si>
     <t>{'show_env': 4}</t>
   </si>
   <si>
-    <t>3.959362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"4"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1145","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"63331993-6498-44e7-831b-0867ba267463","X-Request-Start":"1530671969470"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=4"}
+    <t>1.266599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"4"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.114","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"fb3de6ab-66d6-4c69-a456-c30a9303c8ec","X-Request-Start":"1530706820663"},"origin":"122.226.183.114","url":"https://httpbin.org/get?show_env=4"}
 </t>
   </si>
   <si>
     <t>{'show_env': 5}</t>
   </si>
   <si>
-    <t>1.007563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"5"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"7914fb07-1909-4b94-b50c-2dd5bdfd2a2c","X-Request-Start":"1530671973594"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=5"}
+    <t>1.159689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"5"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"e28ba5a7-11be-42df-b8ca-bf30687abcbc","X-Request-Start":"1530706822083"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=5"}
 </t>
   </si>
   <si>
     <t>{'show_env': 6}</t>
   </si>
   <si>
-    <t>0.99555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"6"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"c7e0c014-86c8-4e82-8cc1-2633c57573ce","X-Request-Start":"1530671974746"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=6"}
+    <t>1.058489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"6"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"75273a15-88c0-4078-9cba-4fcdaec5ec17","X-Request-Start":"1530706823518"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=6"}
 </t>
   </si>
   <si>
     <t>{'show_env': 7}</t>
   </si>
   <si>
-    <t>0.997158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"7"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"232af100-a7ff-473b-a38c-560ae680bb14","X-Request-Start":"1530671975889"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=7"}
+    <t>1.097248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"7"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.115","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"b560fde4-f035-4983-92a8-fba1b5ec0d83","X-Request-Start":"1530706824902"},"origin":"122.226.183.115","url":"https://httpbin.org/get?show_env=7"}
 </t>
   </si>
   <si>
     <t>{'show_env': 8}</t>
   </si>
   <si>
-    <t>1.003037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"8"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"fc1ca354-57d5-4ef6-9fce-34bfc522d9c8","X-Request-Start":"1530671977040"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=8"}
+    <t>1.035655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"8"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"c7a42142-b424-4740-8d80-252c72fc12cd","X-Request-Start":"1530706826208"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=8"}
 </t>
   </si>
   <si>
     <t>{'show_env': 9}</t>
   </si>
   <si>
-    <t>0.977778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"9"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"cc67a902-7e07-473e-bb6f-477386aa1123","X-Request-Start":"1530671978264"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=9"}
+    <t>1.012673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"9"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"09a87700-844f-47ac-ad3a-69e9e3c70a19","X-Request-Start":"1530706827445"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=9"}
 </t>
   </si>
   <si>
     <t>{'show_env': 10}</t>
   </si>
   <si>
-    <t>0.947387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"10"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"bdb042cf-0b5f-49d1-91bd-00627b3fe6ca","X-Request-Start":"1530671979363"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=10"}
+    <t>1.279665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"10"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.114","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"26dc6e7e-3eb0-4e38-b281-490b5c622fe5","X-Request-Start":"1530706828956"},"origin":"122.226.183.114","url":"https://httpbin.org/get?show_env=10"}
 </t>
   </si>
   <si>
     <t>{'show_env': 11}</t>
   </si>
   <si>
-    <t>1.020851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"11"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"3","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"9237b259-9efb-439a-a166-6536f60de8da","X-Request-Start":"1530671980532"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=11"}
+    <t>2.081855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"11"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.114","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"7ee7d097-2f8a-4631-8539-59efbab936c8","X-Request-Start":"1530706830403"},"origin":"122.226.183.114","url":"https://httpbin.org/get?show_env=11"}
 </t>
   </si>
   <si>
     <t>{'show_env': 12}</t>
   </si>
   <si>
-    <t>1.592219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connection":"close","Content-Length":"2","Host":"httpbin.org","User-Agent":"python-requests/2.19.1"},"origin":"122.226.183.115","url":"https://httpbin.org/get"}
+    <t>0.988731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"c85d2806-7bd0-48ff-b7ff-e769133f52fb","X-Request-Start":"1530671981674"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=12"}
 </t>
   </si>
   <si>

--- a/test_data/backup_test.xlsx
+++ b/test_data/backup_test.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -73,30 +73,23 @@
     <t>json</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>9.416401</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"1"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.112","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"8b5d4b2a-f5a6-4987-8151-393c9bcc15a0","X-Request-Start":"1530706816216"},"origin":"122.226.183.112","url":"https://httpbin.org/get?show_env=1"}
+    <t>503</t>
+  </si>
+  <si>
+    <t>1.707986</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The deployment is currently unavailable
 </t>
   </si>
   <si>
     <t>{'show_env': 2}</t>
   </si>
   <si>
-    <t>1.207248</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"2"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.114","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"d7be6d4a-91c0-4f69-a0ba-93a4031ad25b","X-Request-Start":"1530706817775"},"origin":"122.226.183.114","url":"https://httpbin.org/get?show_env=2"}
-</t>
+    <t>1.285017</t>
   </si>
   <si>
     <t>{'show_env': 3}</t>
@@ -105,101 +98,61 @@
     <t>close</t>
   </si>
   <si>
-    <t>1.114428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"3"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"014a5592-23c3-45db-bbc0-f4336d9ac864","X-Request-Start":"1530706819114"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=3"}
-</t>
+    <t>0.759389</t>
   </si>
   <si>
     <t>{'show_env': 4}</t>
   </si>
   <si>
-    <t>1.266599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"4"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.114","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"fb3de6ab-66d6-4c69-a456-c30a9303c8ec","X-Request-Start":"1530706820663"},"origin":"122.226.183.114","url":"https://httpbin.org/get?show_env=4"}
-</t>
+    <t>0.963466</t>
   </si>
   <si>
     <t>{'show_env': 5}</t>
   </si>
   <si>
-    <t>1.159689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"5"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"e28ba5a7-11be-42df-b8ca-bf30687abcbc","X-Request-Start":"1530706822083"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=5"}
-</t>
+    <t>0.822901</t>
   </si>
   <si>
     <t>{'show_env': 6}</t>
   </si>
   <si>
-    <t>1.058489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"6"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"75273a15-88c0-4078-9cba-4fcdaec5ec17","X-Request-Start":"1530706823518"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=6"}
-</t>
+    <t>0.860832</t>
   </si>
   <si>
     <t>{'show_env': 7}</t>
   </si>
   <si>
-    <t>1.097248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"7"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.115","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"b560fde4-f035-4983-92a8-fba1b5ec0d83","X-Request-Start":"1530706824902"},"origin":"122.226.183.115","url":"https://httpbin.org/get?show_env=7"}
-</t>
+    <t>0.794932</t>
   </si>
   <si>
     <t>{'show_env': 8}</t>
   </si>
   <si>
-    <t>1.035655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"8"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"c7a42142-b424-4740-8d80-252c72fc12cd","X-Request-Start":"1530706826208"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=8"}
-</t>
+    <t>1.937996</t>
   </si>
   <si>
     <t>{'show_env': 9}</t>
   </si>
   <si>
-    <t>1.012673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"9"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"09a87700-844f-47ac-ad3a-69e9e3c70a19","X-Request-Start":"1530706827445"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=9"}
-</t>
+    <t>0.781898</t>
   </si>
   <si>
     <t>{'show_env': 10}</t>
   </si>
   <si>
-    <t>1.279665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"10"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.114","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"26dc6e7e-3eb0-4e38-b281-490b5c622fe5","X-Request-Start":"1530706828956"},"origin":"122.226.183.114","url":"https://httpbin.org/get?show_env=10"}
-</t>
+    <t>4.31562</t>
   </si>
   <si>
     <t>{'show_env': 11}</t>
   </si>
   <si>
-    <t>2.081855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"11"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"122.226.183.114","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"7ee7d097-2f8a-4631-8539-59efbab936c8","X-Request-Start":"1530706830403"},"origin":"122.226.183.114","url":"https://httpbin.org/get?show_env=11"}
-</t>
+    <t>0.760992</t>
   </si>
   <si>
     <t>{'show_env': 12}</t>
   </si>
   <si>
-    <t>0.988731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"c85d2806-7bd0-48ff-b7ff-e769133f52fb","X-Request-Start":"1530671981674"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=12"}
-</t>
+    <t>0.74563</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -654,10 +607,10 @@
         <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -671,25 +624,25 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
         <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -703,7 +656,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -718,13 +671,13 @@
         <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
         <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -738,7 +691,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -753,13 +706,13 @@
         <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -773,25 +726,25 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
         <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -805,7 +758,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -820,13 +773,13 @@
         <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s">
         <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -840,7 +793,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -855,13 +808,13 @@
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -875,25 +828,25 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J10" t="s">
         <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="L10" t="s">
         <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -907,7 +860,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -922,13 +875,13 @@
         <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="L11" t="s">
         <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -942,7 +895,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -957,13 +910,13 @@
         <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -977,25 +930,25 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J13" t="s">
         <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L13" t="s">
         <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1072,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -1095,7 +1048,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -1118,13 +1071,13 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1138,7 +1091,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -1161,7 +1114,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -1184,13 +1137,13 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/backup_test.xlsx
+++ b/test_data/backup_test.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -73,86 +73,133 @@
     <t>json</t>
   </si>
   <si>
-    <t>503</t>
-  </si>
-  <si>
-    <t>1.707986</t>
+    <t>200</t>
+  </si>
+  <si>
+    <t>3.572802</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"1"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"e5c98ef0-e727-41d9-9772-2f0c9a592647","X-Request-Start":"1532073434151"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=1"}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 2}</t>
+  </si>
+  <si>
+    <t>0.975671</t>
   </si>
   <si>
     <t>fail</t>
   </si>
   <si>
-    <t xml:space="preserve">The deployment is currently unavailable
+    <t xml:space="preserve">{"args":{"show_env":"2"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"34690566-37e3-4860-a728-17e3e71c8e60","X-Request-Start":"1532073436579"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=2"}
 </t>
   </si>
   <si>
-    <t>{'show_env': 2}</t>
-  </si>
-  <si>
-    <t>1.285017</t>
-  </si>
-  <si>
     <t>{'show_env': 3}</t>
   </si>
   <si>
     <t>close</t>
   </si>
   <si>
-    <t>0.759389</t>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"3"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"ed6c2ccb-1ef9-4a6c-9ce5-6d7711d7933c","X-Request-Start":"1532073437689"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=3"}
+</t>
   </si>
   <si>
     <t>{'show_env': 4}</t>
   </si>
   <si>
-    <t>0.963466</t>
+    <t>0.983714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"4"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"046e5830-e4dc-4d11-9fda-6e1df4a16a4b","X-Request-Start":"1532073438909"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=4"}
+</t>
   </si>
   <si>
     <t>{'show_env': 5}</t>
   </si>
   <si>
-    <t>0.822901</t>
+    <t>1.024516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"5"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"40ed31cc-00b7-4532-863d-22fab973c35a","X-Request-Start":"1532073440102"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=5"}
+</t>
   </si>
   <si>
     <t>{'show_env': 6}</t>
   </si>
   <si>
-    <t>0.860832</t>
+    <t>0.950964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"6"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"513049e1-f6dd-445c-93c7-15b0ace8fd86","X-Request-Start":"1532073441195"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=6"}
+</t>
   </si>
   <si>
     <t>{'show_env': 7}</t>
   </si>
   <si>
-    <t>0.794932</t>
+    <t>0.946526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"7"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"7b11c464-0d29-4f44-9457-02d750c647a5","X-Request-Start":"1532073442346"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=7"}
+</t>
   </si>
   <si>
     <t>{'show_env': 8}</t>
   </si>
   <si>
-    <t>1.937996</t>
+    <t>2.049584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"8"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"1c6d38be-363c-4610-97ed-74639817d88d","X-Request-Start":"1532073444562"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=8"}
+</t>
   </si>
   <si>
     <t>{'show_env': 9}</t>
   </si>
   <si>
-    <t>0.781898</t>
+    <t>1.852357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"9"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"13160021-3a2d-4fe2-859e-131bbbc60f5a","X-Request-Start":"1532073446564"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=9"}
+</t>
   </si>
   <si>
     <t>{'show_env': 10}</t>
   </si>
   <si>
-    <t>4.31562</t>
+    <t>0.966398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"10"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"f6fc17e5-049c-441e-afaf-1cca7d1a3509","X-Request-Start":"1532073447722"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=10"}
+</t>
   </si>
   <si>
     <t>{'show_env': 11}</t>
   </si>
   <si>
-    <t>0.760992</t>
+    <t>0.952278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"11"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"3a2d8b4d-01d3-4664-ab9b-295166d410bb","X-Request-Start":"1532073448816"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=11"}
+</t>
   </si>
   <si>
     <t>{'show_env': 12}</t>
   </si>
   <si>
-    <t>0.74563</t>
+    <t>1.08438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"1afef6f8-4d55-4132-9828-19185e9e9002","X-Request-Start":"1530706832667"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=12"}
+</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -607,10 +654,10 @@
         <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -624,25 +671,25 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
         <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -656,7 +703,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -671,13 +718,13 @@
         <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
         <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -691,7 +738,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -706,13 +753,13 @@
         <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -726,25 +773,25 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
         <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -758,7 +805,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -773,13 +820,13 @@
         <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L8" t="s">
         <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -793,7 +840,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -808,13 +855,13 @@
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -828,25 +875,25 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J10" t="s">
         <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="L10" t="s">
         <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -860,7 +907,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -875,13 +922,13 @@
         <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L11" t="s">
         <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -895,7 +942,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -910,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="L12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -930,25 +977,25 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J13" t="s">
         <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="L13" t="s">
         <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1025,7 +1072,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -1048,7 +1095,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -1071,13 +1118,13 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1091,7 +1138,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -1114,7 +1161,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -1137,13 +1184,13 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/backup_test.xlsx
+++ b/test_data/backup_test.xlsx
@@ -76,26 +76,26 @@
     <t>200</t>
   </si>
   <si>
-    <t>3.572802</t>
+    <t>0.937311</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t xml:space="preserve">{"args":{"show_env":"1"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"e5c98ef0-e727-41d9-9772-2f0c9a592647","X-Request-Start":"1532073434151"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=1"}
+    <t xml:space="preserve">{"args":{"show_env":"1"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"e2879ad4-09a5-4a59-9ea5-b85a95241ead","X-Request-Start":"1532397289487"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=1"}
 </t>
   </si>
   <si>
     <t>{'show_env': 2}</t>
   </si>
   <si>
-    <t>0.975671</t>
+    <t>0.957452</t>
   </si>
   <si>
     <t>fail</t>
   </si>
   <si>
-    <t xml:space="preserve">{"args":{"show_env":"2"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"34690566-37e3-4860-a728-17e3e71c8e60","X-Request-Start":"1532073436579"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=2"}
+    <t xml:space="preserve">{"args":{"show_env":"2"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"be9611c6-0973-4015-90c4-a9e1ad24e60c","X-Request-Start":"1532397290659"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=2"}
 </t>
   </si>
   <si>
@@ -105,100 +105,100 @@
     <t>close</t>
   </si>
   <si>
-    <t>0.945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"3"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"ed6c2ccb-1ef9-4a6c-9ce5-6d7711d7933c","X-Request-Start":"1532073437689"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=3"}
+    <t>1.022339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"3"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"b70ac42f-ca44-4d48-9067-029b9e008060","X-Request-Start":"1532397291881"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=3"}
 </t>
   </si>
   <si>
     <t>{'show_env': 4}</t>
   </si>
   <si>
-    <t>0.983714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"4"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"046e5830-e4dc-4d11-9fda-6e1df4a16a4b","X-Request-Start":"1532073438909"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=4"}
+    <t>0.946726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"4"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"a7efd19d-567b-4a17-a258-f690350614d5","X-Request-Start":"1532397293055"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=4"}
 </t>
   </si>
   <si>
     <t>{'show_env': 5}</t>
   </si>
   <si>
-    <t>1.024516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"5"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"40ed31cc-00b7-4532-863d-22fab973c35a","X-Request-Start":"1532073440102"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=5"}
+    <t>0.986174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"5"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"64f84262-4747-435c-b5ed-0072a8a00072","X-Request-Start":"1532397294197"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=5"}
 </t>
   </si>
   <si>
     <t>{'show_env': 6}</t>
   </si>
   <si>
-    <t>0.950964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"6"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"513049e1-f6dd-445c-93c7-15b0ace8fd86","X-Request-Start":"1532073441195"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=6"}
+    <t>0.96831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"6"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"dc55eb58-5539-4aaf-b4dd-9502f6f0a900","X-Request-Start":"1532397295394"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=6"}
 </t>
   </si>
   <si>
     <t>{'show_env': 7}</t>
   </si>
   <si>
-    <t>0.946526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"7"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"7b11c464-0d29-4f44-9457-02d750c647a5","X-Request-Start":"1532073442346"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=7"}
+    <t>0.976819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"7"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"f4996405-1e80-4101-89c6-066ae2729b3a","X-Request-Start":"1532397296539"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=7"}
 </t>
   </si>
   <si>
     <t>{'show_env': 8}</t>
   </si>
   <si>
-    <t>2.049584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"8"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"1c6d38be-363c-4610-97ed-74639817d88d","X-Request-Start":"1532073444562"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=8"}
+    <t>0.96077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"8"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"7c7eae9e-2088-4735-8cbe-b9677b55596d","X-Request-Start":"1532397297648"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=8"}
 </t>
   </si>
   <si>
     <t>{'show_env': 9}</t>
   </si>
   <si>
-    <t>1.852357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"9"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"13160021-3a2d-4fe2-859e-131bbbc60f5a","X-Request-Start":"1532073446564"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=9"}
+    <t>0.988361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"9"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"9ca17069-ce4d-44d2-a1f1-cce931c68f5c","X-Request-Start":"1532397298772"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=9"}
 </t>
   </si>
   <si>
     <t>{'show_env': 10}</t>
   </si>
   <si>
-    <t>0.966398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"10"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"f6fc17e5-049c-441e-afaf-1cca7d1a3509","X-Request-Start":"1532073447722"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=10"}
+    <t>0.944772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"10"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"7fe128c9-4035-4a46-a520-807eba146777","X-Request-Start":"1532397299954"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=10"}
 </t>
   </si>
   <si>
     <t>{'show_env': 11}</t>
   </si>
   <si>
-    <t>0.952278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"11"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"3a2d8b4d-01d3-4664-ab9b-295166d410bb","X-Request-Start":"1532073448816"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=11"}
+    <t>0.958761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"11"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"eb46d6cf-2984-4f26-bf18-19331926faf3","X-Request-Start":"1532397301091"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=11"}
 </t>
   </si>
   <si>
     <t>{'show_env': 12}</t>
   </si>
   <si>
-    <t>1.08438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.18.4","Via":"1.1 vegur","X-Forwarded-For":"183.240.20.29","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"1afef6f8-4d55-4132-9828-19185e9e9002","X-Request-Start":"1530706832667"},"origin":"183.240.20.29","url":"https://httpbin.org/get?show_env=12"}
+    <t>0.979007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"ab7b046b-3381-4b71-a015-fd42ac6fe7f3","X-Request-Start":"1532397107663"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=12"}
 </t>
   </si>
   <si>

--- a/test_data/backup_test.xlsx
+++ b/test_data/backup_test.xlsx
@@ -76,26 +76,26 @@
     <t>200</t>
   </si>
   <si>
-    <t>0.937311</t>
+    <t>0.953406</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t xml:space="preserve">{"args":{"show_env":"1"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"e2879ad4-09a5-4a59-9ea5-b85a95241ead","X-Request-Start":"1532397289487"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=1"}
+    <t xml:space="preserve">{"args":{"show_env":"1"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"0b4635d7-3595-4464-b204-9e73acd110fd","X-Request-Start":"1532420811384"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=1"}
 </t>
   </si>
   <si>
     <t>{'show_env': 2}</t>
   </si>
   <si>
-    <t>0.957452</t>
+    <t>0.966767</t>
   </si>
   <si>
     <t>fail</t>
   </si>
   <si>
-    <t xml:space="preserve">{"args":{"show_env":"2"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"be9611c6-0973-4015-90c4-a9e1ad24e60c","X-Request-Start":"1532397290659"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=2"}
+    <t xml:space="preserve">{"args":{"show_env":"2"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"c045761e-0e12-4ffa-9922-bb9c031b4f66","X-Request-Start":"1532420812514"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=2"}
 </t>
   </si>
   <si>
@@ -105,100 +105,100 @@
     <t>close</t>
   </si>
   <si>
-    <t>1.022339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"3"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"b70ac42f-ca44-4d48-9067-029b9e008060","X-Request-Start":"1532397291881"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=3"}
+    <t>1.164083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"3"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"d4804b4d-1d4e-4dbf-9f28-a9cc39fe3d07","X-Request-Start":"1532420813864"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=3"}
 </t>
   </si>
   <si>
     <t>{'show_env': 4}</t>
   </si>
   <si>
-    <t>0.946726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"4"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"a7efd19d-567b-4a17-a258-f690350614d5","X-Request-Start":"1532397293055"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=4"}
+    <t>0.982862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"4"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"90b4d4a1-2de9-4336-b476-77f9b0a06449","X-Request-Start":"1532420815007"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=4"}
 </t>
   </si>
   <si>
     <t>{'show_env': 5}</t>
   </si>
   <si>
-    <t>0.986174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"5"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"64f84262-4747-435c-b5ed-0072a8a00072","X-Request-Start":"1532397294197"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=5"}
+    <t>1.137319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"5"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"e47f6d7e-cfba-42fc-afea-18aef77df0f3","X-Request-Start":"1532420816308"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=5"}
 </t>
   </si>
   <si>
     <t>{'show_env': 6}</t>
   </si>
   <si>
-    <t>0.96831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"6"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"dc55eb58-5539-4aaf-b4dd-9502f6f0a900","X-Request-Start":"1532397295394"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=6"}
+    <t>0.937934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"6"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"b00df35d-67bc-4b1c-a303-b0dbdcd03da9","X-Request-Start":"1532420817434"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=6"}
 </t>
   </si>
   <si>
     <t>{'show_env': 7}</t>
   </si>
   <si>
-    <t>0.976819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"7"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"f4996405-1e80-4101-89c6-066ae2729b3a","X-Request-Start":"1532397296539"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=7"}
+    <t>1.152266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"7"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"0db30b91-7f5c-40ed-bdde-7c7c1c8dc2c6","X-Request-Start":"1532420818759"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=7"}
 </t>
   </si>
   <si>
     <t>{'show_env': 8}</t>
   </si>
   <si>
-    <t>0.96077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"8"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"7c7eae9e-2088-4735-8cbe-b9677b55596d","X-Request-Start":"1532397297648"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=8"}
+    <t>1.199188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"8"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"ec725dd7-5321-4166-b0d1-ad7e6ee10604","X-Request-Start":"1532420820095"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=8"}
 </t>
   </si>
   <si>
     <t>{'show_env': 9}</t>
   </si>
   <si>
-    <t>0.988361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"9"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"9ca17069-ce4d-44d2-a1f1-cce931c68f5c","X-Request-Start":"1532397298772"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=9"}
+    <t>1.125667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"9"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"9c145c23-b7fb-49e8-abb1-8a5dabf20f79","X-Request-Start":"1532420821356"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=9"}
 </t>
   </si>
   <si>
     <t>{'show_env': 10}</t>
   </si>
   <si>
-    <t>0.944772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"10"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"7fe128c9-4035-4a46-a520-807eba146777","X-Request-Start":"1532397299954"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=10"}
+    <t>0.946379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"10"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"27dcda63-b41e-41b8-9567-ca7895188ed6","X-Request-Start":"1532420822601"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=10"}
 </t>
   </si>
   <si>
     <t>{'show_env': 11}</t>
   </si>
   <si>
-    <t>0.958761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"11"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"eb46d6cf-2984-4f26-bf18-19331926faf3","X-Request-Start":"1532397301091"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=11"}
+    <t>1.209313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"11"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"2b7c1a6d-5f59-405e-8cce-d13f90ad1d99","X-Request-Start":"1532420823989"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=11"}
 </t>
   </si>
   <si>
     <t>{'show_env': 12}</t>
   </si>
   <si>
-    <t>0.979007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"ab7b046b-3381-4b71-a015-fd42ac6fe7f3","X-Request-Start":"1532397107663"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=12"}
+    <t>1.003115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"43c2e83f-cf1e-420e-9479-82d0f5cd57d6","X-Request-Start":"1532397302273"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=12"}
 </t>
   </si>
   <si>

--- a/test_data/backup_test.xlsx
+++ b/test_data/backup_test.xlsx
@@ -4,12 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="test2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="test3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -76,26 +77,70 @@
     <t>200</t>
   </si>
   <si>
-    <t>0.953406</t>
+    <t>2.69553</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t xml:space="preserve">{"args":{"show_env":"1"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"0b4635d7-3595-4464-b204-9e73acd110fd","X-Request-Start":"1532420811384"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=1"}
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "1"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "63d68c68-0a6e-4c23-8cda-25aea4a6b567", 
+    "X-Request-Start": "1532962539949"
+  }, 
+  "origin": "183.2.198.164", 
+  "url": "https://httpbin.org/get?show_env=1"
+}
 </t>
   </si>
   <si>
     <t>{'show_env': 2}</t>
   </si>
   <si>
-    <t>0.966767</t>
+    <t>1.143455</t>
   </si>
   <si>
     <t>fail</t>
   </si>
   <si>
-    <t xml:space="preserve">{"args":{"show_env":"2"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"c045761e-0e12-4ffa-9922-bb9c031b4f66","X-Request-Start":"1532420812514"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=2"}
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "2"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "8c421a43-b82d-4c42-82fa-ea5502e2b62d", 
+    "X-Request-Start": "1532962541304"
+  }, 
+  "origin": "183.2.198.164", 
+  "url": "https://httpbin.org/get?show_env=2"
+}
 </t>
   </si>
   <si>
@@ -105,104 +150,342 @@
     <t>close</t>
   </si>
   <si>
-    <t>1.164083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"3"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"d4804b4d-1d4e-4dbf-9f28-a9cc39fe3d07","X-Request-Start":"1532420813864"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=3"}
+    <t>1.079162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "3"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "5d6f6d95-35cb-4c38-8fb6-f2eb230e323d", 
+    "X-Request-Start": "1532962542627"
+  }, 
+  "origin": "183.2.198.164", 
+  "url": "https://httpbin.org/get?show_env=3"
+}
 </t>
   </si>
   <si>
     <t>{'show_env': 4}</t>
   </si>
   <si>
-    <t>0.982862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"4"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"90b4d4a1-2de9-4336-b476-77f9b0a06449","X-Request-Start":"1532420815007"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=4"}
+    <t>0.966969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "4"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "68500b0a-1d8b-4399-9786-d06554b975f7", 
+    "X-Request-Start": "1532962543795"
+  }, 
+  "origin": "183.240.20.27", 
+  "url": "https://httpbin.org/get?show_env=4"
+}
 </t>
   </si>
   <si>
     <t>{'show_env': 5}</t>
   </si>
   <si>
-    <t>1.137319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"5"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"e47f6d7e-cfba-42fc-afea-18aef77df0f3","X-Request-Start":"1532420816308"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=5"}
+    <t>2.156589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "5"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "795089f2-1ec4-4e89-9d3d-f5002d550b02", 
+    "X-Request-Start": "1532962546144"
+  }, 
+  "origin": "183.2.198.164", 
+  "url": "https://httpbin.org/get?show_env=5"
+}
 </t>
   </si>
   <si>
     <t>{'show_env': 6}</t>
   </si>
   <si>
-    <t>0.937934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"6"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"b00df35d-67bc-4b1c-a303-b0dbdcd03da9","X-Request-Start":"1532420817434"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=6"}
+    <t>0.96787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "6"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "026246a4-3895-432c-a345-42d8ad4fa920", 
+    "X-Request-Start": "1532962547369"
+  }, 
+  "origin": "183.240.20.27", 
+  "url": "https://httpbin.org/get?show_env=6"
+}
 </t>
   </si>
   <si>
     <t>{'show_env': 7}</t>
   </si>
   <si>
-    <t>1.152266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"7"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"0db30b91-7f5c-40ed-bdde-7c7c1c8dc2c6","X-Request-Start":"1532420818759"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=7"}
+    <t>0.961429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "7"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "4c4cab99-83ab-4f4b-868b-ec83e8c25dbf", 
+    "X-Request-Start": "1532962548730"
+  }, 
+  "origin": "183.240.20.27", 
+  "url": "https://httpbin.org/get?show_env=7"
+}
 </t>
   </si>
   <si>
     <t>{'show_env': 8}</t>
   </si>
   <si>
-    <t>1.199188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"8"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"ec725dd7-5321-4166-b0d1-ad7e6ee10604","X-Request-Start":"1532420820095"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=8"}
+    <t>0.992165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "8"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "4", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "482e41eb-71ca-4235-944f-2a5001df7bc0", 
+    "X-Request-Start": "1532962549896"
+  }, 
+  "origin": "183.240.20.27", 
+  "url": "https://httpbin.org/get?show_env=8"
+}
 </t>
   </si>
   <si>
     <t>{'show_env': 9}</t>
   </si>
   <si>
-    <t>1.125667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"9"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"9c145c23-b7fb-49e8-abb1-8a5dabf20f79","X-Request-Start":"1532420821356"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=9"}
+    <t>4.365889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "9"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "c78455b3-80c3-4657-a073-4f1fd0c73bb8", 
+    "X-Request-Start": "1532962554593"
+  }, 
+  "origin": "183.2.198.164", 
+  "url": "https://httpbin.org/get?show_env=9"
+}
 </t>
   </si>
   <si>
     <t>{'show_env': 10}</t>
   </si>
   <si>
-    <t>0.946379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"10"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"1","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"27dcda63-b41e-41b8-9567-ca7895188ed6","X-Request-Start":"1532420822601"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=10"}
+    <t>1.020708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "10"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "0e23af41-1bf9-402c-b5fa-b4ab17d247ac", 
+    "X-Request-Start": "1532962555855"
+  }, 
+  "origin": "183.240.20.27", 
+  "url": "https://httpbin.org/get?show_env=10"
+}
 </t>
   </si>
   <si>
     <t>{'show_env': 11}</t>
   </si>
   <si>
-    <t>1.209313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"11"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"2b7c1a6d-5f59-405e-8cce-d13f90ad1d99","X-Request-Start":"1532420823989"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=11"}
+    <t>1.057998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "11"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.165", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "20b7bbb6-9585-48b5-9be0-2da83cc667be", 
+    "X-Request-Start": "1532962557108"
+  }, 
+  "origin": "183.2.198.165", 
+  "url": "https://httpbin.org/get?show_env=11"
+}
 </t>
   </si>
   <si>
     <t>{'show_env': 12}</t>
   </si>
   <si>
-    <t>1.003115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"args":{"show_env":"12"},"headers":{"Accept":"*/*","Accept-Encoding":"gzip, deflate","Connect-Time":"0","Connection":"close","Content-Length":"2","Host":"httpbin.org","Total-Route-Time":"0","User-Agent":"python-requests/2.19.1","Via":"1.1 vegur","X-Forwarded-For":"113.108.193.130","X-Forwarded-Port":"443","X-Forwarded-Proto":"https","X-Request-Id":"43c2e83f-cf1e-420e-9479-82d0f5cd57d6","X-Request-Start":"1532397302273"},"origin":"113.108.193.130","url":"https://httpbin.org/get?show_env=12"}
+    <t>1.077821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "12"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.166", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "e7aa58cc-d4fb-434e-9a63-d1dd6d739b95", 
+    "X-Request-Start": "1532962442544"
+  }, 
+  "origin": "183.2.198.166", 
+  "url": "https://httpbin.org/get?show_env=12"
+}
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>sheng</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>//input[@id="kw"]</t>
+  </si>
+  <si>
+    <t>//*[@id="su"]</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1017,180 +1300,28 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="n">
-        <v>200</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="n">
-        <v>200</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="n">
-        <v>200</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="n">
-        <v>200</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1199,6 +1330,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/test_data/backup_test.xlsx
+++ b/test_data/backup_test.xlsx
@@ -77,7 +77,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>2.69553</t>
+    <t>3.140086</t>
   </si>
   <si>
     <t>pass</t>
@@ -97,13 +97,13 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.18.4", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-For": "183.240.20.27", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "63d68c68-0a6e-4c23-8cda-25aea4a6b567", 
-    "X-Request-Start": "1532962539949"
-  }, 
-  "origin": "183.2.198.164", 
+    "X-Request-Id": "2902e183-a6eb-4caf-9a85-fc883f945e16", 
+    "X-Request-Start": "1533134490196"
+  }, 
+  "origin": "183.240.20.27", 
   "url": "https://httpbin.org/get?show_env=1"
 }
 </t>
@@ -112,7 +112,7 @@
     <t>{'show_env': 2}</t>
   </si>
   <si>
-    <t>1.143455</t>
+    <t>1.371314</t>
   </si>
   <si>
     <t>fail</t>
@@ -121,6 +121,73 @@
     <t xml:space="preserve">{
   "args": {
     "show_env": "2"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "8191207d-2d03-49f3-a9f5-cd8db85d5949", 
+    "X-Request-Start": "1533134491900"
+  }, 
+  "origin": "183.240.20.27", 
+  "url": "https://httpbin.org/get?show_env=2"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 3}</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>1.32338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "3"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "8dc2137e-0608-4afe-94e9-eae455fdfc8b", 
+    "X-Request-Start": "1533134493473"
+  }, 
+  "origin": "183.240.20.27", 
+  "url": "https://httpbin.org/get?show_env=3"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 4}</t>
+  </si>
+  <si>
+    <t>4.6303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "4"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -135,27 +202,56 @@
     "X-Forwarded-For": "183.2.198.164", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "8c421a43-b82d-4c42-82fa-ea5502e2b62d", 
-    "X-Request-Start": "1532962541304"
+    "X-Request-Id": "7dce1573-08bd-4ec7-829a-98e9962bc812", 
+    "X-Request-Start": "1533134498333"
   }, 
   "origin": "183.2.198.164", 
-  "url": "https://httpbin.org/get?show_env=2"
+  "url": "https://httpbin.org/get?show_env=4"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 3}</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>1.079162</t>
+    <t>{'show_env': 5}</t>
+  </si>
+  <si>
+    <t>2.237877</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "3"
+    "show_env": "5"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.167", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "cddf1c36-7db0-4362-9a08-c450af6d97c1", 
+    "X-Request-Start": "1533134500828"
+  }, 
+  "origin": "183.2.198.167", 
+  "url": "https://httpbin.org/get?show_env=5"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 6}</t>
+  </si>
+  <si>
+    <t>3.109158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "6"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -170,24 +266,120 @@
     "X-Forwarded-For": "183.2.198.164", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "5d6f6d95-35cb-4c38-8fb6-f2eb230e323d", 
-    "X-Request-Start": "1532962542627"
+    "X-Request-Id": "44ffc8f1-8def-4ed0-bd64-583088b096a3", 
+    "X-Request-Start": "1533134504200"
   }, 
   "origin": "183.2.198.164", 
-  "url": "https://httpbin.org/get?show_env=3"
+  "url": "https://httpbin.org/get?show_env=6"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 4}</t>
-  </si>
-  <si>
-    <t>0.966969</t>
+    <t>{'show_env': 7}</t>
+  </si>
+  <si>
+    <t>1.693949</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "4"
+    "show_env": "7"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "71", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "fb32d02b-0b98-4227-a1bc-7b95d9cef209", 
+    "X-Request-Start": "1533134505930"
+  }, 
+  "origin": "183.2.198.164", 
+  "url": "https://httpbin.org/get?show_env=7"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 8}</t>
+  </si>
+  <si>
+    <t>2.145183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "8"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "67d41248-710f-4f00-9f3d-9a6689193bdb", 
+    "X-Request-Start": "1533134508544"
+  }, 
+  "origin": "183.2.198.164", 
+  "url": "https://httpbin.org/get?show_env=8"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 9}</t>
+  </si>
+  <si>
+    <t>1.778264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "9"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "3ad6d6dc-a64a-43ac-b25c-1b80da1b76dc", 
+    "X-Request-Start": "1533134510557"
+  }, 
+  "origin": "183.2.198.164", 
+  "url": "https://httpbin.org/get?show_env=9"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 10}</t>
+  </si>
+  <si>
+    <t>22.408393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "10"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -202,24 +394,56 @@
     "X-Forwarded-For": "183.240.20.27", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "68500b0a-1d8b-4399-9786-d06554b975f7", 
-    "X-Request-Start": "1532962543795"
+    "X-Request-Id": "ee2b0742-519f-426f-96e9-7fa731cc4f9c", 
+    "X-Request-Start": "1533134533235"
   }, 
   "origin": "183.240.20.27", 
-  "url": "https://httpbin.org/get?show_env=4"
+  "url": "https://httpbin.org/get?show_env=10"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 5}</t>
-  </si>
-  <si>
-    <t>2.156589</t>
+    <t>{'show_env': 11}</t>
+  </si>
+  <si>
+    <t>3.299148</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "5"
+    "show_env": "11"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "2", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.165", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "5eb5f6a2-11f6-4cdd-92ba-44d5b6ed599a", 
+    "X-Request-Start": "1533134536728"
+  }, 
+  "origin": "183.2.198.165", 
+  "url": "https://httpbin.org/get?show_env=11"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 12}</t>
+  </si>
+  <si>
+    <t>1.425616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "12"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -231,237 +455,13 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.18.4", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.164", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "795089f2-1ec4-4e89-9d3d-f5002d550b02", 
-    "X-Request-Start": "1532962546144"
-  }, 
-  "origin": "183.2.198.164", 
-  "url": "https://httpbin.org/get?show_env=5"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 6}</t>
-  </si>
-  <si>
-    <t>0.96787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "6"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
     "X-Forwarded-For": "183.240.20.27", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "026246a4-3895-432c-a345-42d8ad4fa920", 
-    "X-Request-Start": "1532962547369"
+    "X-Request-Id": "13959957-eb54-4a7f-a50e-e9bed4d77219", 
+    "X-Request-Start": "1533132022394"
   }, 
   "origin": "183.240.20.27", 
-  "url": "https://httpbin.org/get?show_env=6"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 7}</t>
-  </si>
-  <si>
-    <t>0.961429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "7"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "4c4cab99-83ab-4f4b-868b-ec83e8c25dbf", 
-    "X-Request-Start": "1532962548730"
-  }, 
-  "origin": "183.240.20.27", 
-  "url": "https://httpbin.org/get?show_env=7"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 8}</t>
-  </si>
-  <si>
-    <t>0.992165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "8"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "4", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "482e41eb-71ca-4235-944f-2a5001df7bc0", 
-    "X-Request-Start": "1532962549896"
-  }, 
-  "origin": "183.240.20.27", 
-  "url": "https://httpbin.org/get?show_env=8"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 9}</t>
-  </si>
-  <si>
-    <t>4.365889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "9"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.164", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "c78455b3-80c3-4657-a073-4f1fd0c73bb8", 
-    "X-Request-Start": "1532962554593"
-  }, 
-  "origin": "183.2.198.164", 
-  "url": "https://httpbin.org/get?show_env=9"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 10}</t>
-  </si>
-  <si>
-    <t>1.020708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "10"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "0e23af41-1bf9-402c-b5fa-b4ab17d247ac", 
-    "X-Request-Start": "1532962555855"
-  }, 
-  "origin": "183.240.20.27", 
-  "url": "https://httpbin.org/get?show_env=10"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 11}</t>
-  </si>
-  <si>
-    <t>1.057998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "11"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.165", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "20b7bbb6-9585-48b5-9be0-2da83cc667be", 
-    "X-Request-Start": "1532962557108"
-  }, 
-  "origin": "183.2.198.165", 
-  "url": "https://httpbin.org/get?show_env=11"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 12}</t>
-  </si>
-  <si>
-    <t>1.077821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "12"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.166", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "e7aa58cc-d4fb-434e-9a63-d1dd6d739b95", 
-    "X-Request-Start": "1532962442544"
-  }, 
-  "origin": "183.2.198.166", 
   "url": "https://httpbin.org/get?show_env=12"
 }
 </t>

--- a/test_data/backup_test.xlsx
+++ b/test_data/backup_test.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>3.140086</t>
+    <t>1.074733</t>
   </si>
   <si>
     <t>pass</t>
@@ -86,6 +86,41 @@
     <t xml:space="preserve">{
   "args": {
     "show_env": "1"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "d2e562d6-b643-44d8-8d99-0ca075fc1512", 
+    "X-Request-Start": "1533644922679"
+  }, 
+  "origin": "183.240.20.27", 
+  "url": "https://httpbin.org/get?show_env=1"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 2}</t>
+  </si>
+  <si>
+    <t>0.993629</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "2"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -95,32 +130,64 @@
     "Content-Length": "2", 
     "Host": "httpbin.org", 
     "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
+    "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
     "X-Forwarded-For": "183.240.20.27", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "2902e183-a6eb-4caf-9a85-fc883f945e16", 
-    "X-Request-Start": "1533134490196"
+    "X-Request-Id": "84f60262-d489-4016-b4b7-18d8db494bce", 
+    "X-Request-Start": "1533644923905"
   }, 
   "origin": "183.240.20.27", 
-  "url": "https://httpbin.org/get?show_env=1"
+  "url": "https://httpbin.org/get?show_env=2"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 2}</t>
-  </si>
-  <si>
-    <t>1.371314</t>
-  </si>
-  <si>
-    <t>fail</t>
+    <t>{'show_env': 3}</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>0.976106</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "2"
+    "show_env": "3"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "fd56ee7b-dc68-45a8-bc79-018afed343c3", 
+    "X-Request-Start": "1533644925097"
+  }, 
+  "origin": "183.240.20.27", 
+  "url": "https://httpbin.org/get?show_env=3"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 4}</t>
+  </si>
+  <si>
+    <t>1.029632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "4"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -130,32 +197,157 @@
     "Content-Length": "2", 
     "Host": "httpbin.org", 
     "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.19.59", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "b0cb0a8f-3ff6-42a8-8595-226c110ad614", 
+    "X-Request-Start": "1533644926363"
+  }, 
+  "origin": "183.240.19.59", 
+  "url": "https://httpbin.org/get?show_env=4"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 5}</t>
+  </si>
+  <si>
+    <t>1.007777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "5"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.19.59", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "d5b91a19-59e8-4c27-9416-19882ff24c03", 
+    "X-Request-Start": "1533644927605"
+  }, 
+  "origin": "183.240.19.59", 
+  "url": "https://httpbin.org/get?show_env=5"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 6}</t>
+  </si>
+  <si>
+    <t>1.027611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "6"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.19.59", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "ab012f8c-c92e-42c4-93c4-4bdf71a8921e", 
+    "X-Request-Start": "1533644928860"
+  }, 
+  "origin": "183.240.19.59", 
+  "url": "https://httpbin.org/get?show_env=6"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 7}</t>
+  </si>
+  <si>
+    <t>0.981192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "7"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
     "X-Forwarded-For": "183.240.20.27", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "8191207d-2d03-49f3-a9f5-cd8db85d5949", 
-    "X-Request-Start": "1533134491900"
+    "X-Request-Id": "3a689aa9-5f03-4d7c-8229-ce144a4ab10d", 
+    "X-Request-Start": "1533644930049"
   }, 
   "origin": "183.240.20.27", 
-  "url": "https://httpbin.org/get?show_env=2"
+  "url": "https://httpbin.org/get?show_env=7"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 3}</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>1.32338</t>
+    <t>{'show_env': 8}</t>
+  </si>
+  <si>
+    <t>1.036124</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "3"
+    "show_env": "8"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.19.59", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "4d196d36-221b-482b-a6e3-04fe6e4df4ea", 
+    "X-Request-Start": "1533644931309"
+  }, 
+  "origin": "183.240.19.59", 
+  "url": "https://httpbin.org/get?show_env=8"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 9}</t>
+  </si>
+  <si>
+    <t>1.002032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "9"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -165,29 +357,29 @@
     "Content-Length": "2", 
     "Host": "httpbin.org", 
     "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
+    "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-For": "183.240.19.59", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "8dc2137e-0608-4afe-94e9-eae455fdfc8b", 
-    "X-Request-Start": "1533134493473"
-  }, 
-  "origin": "183.240.20.27", 
-  "url": "https://httpbin.org/get?show_env=3"
+    "X-Request-Id": "71c1bac0-3011-4d39-985e-f78a4fd5802a", 
+    "X-Request-Start": "1533644932552"
+  }, 
+  "origin": "183.240.19.59", 
+  "url": "https://httpbin.org/get?show_env=9"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 4}</t>
-  </si>
-  <si>
-    <t>4.6303</t>
+    <t>{'show_env': 10}</t>
+  </si>
+  <si>
+    <t>0.971456</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "4"
+    "show_env": "10"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -197,61 +389,29 @@
     "Content-Length": "2", 
     "Host": "httpbin.org", 
     "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
+    "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-For": "183.240.19.59", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "7dce1573-08bd-4ec7-829a-98e9962bc812", 
-    "X-Request-Start": "1533134498333"
-  }, 
-  "origin": "183.2.198.164", 
-  "url": "https://httpbin.org/get?show_env=4"
+    "X-Request-Id": "01a6161d-e30b-422a-be57-14d90048310c", 
+    "X-Request-Start": "1533644933747"
+  }, 
+  "origin": "183.240.19.59", 
+  "url": "https://httpbin.org/get?show_env=10"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 5}</t>
-  </si>
-  <si>
-    <t>2.237877</t>
+    <t>{'show_env': 11}</t>
+  </si>
+  <si>
+    <t>1.987692</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "5"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.167", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "cddf1c36-7db0-4362-9a08-c450af6d97c1", 
-    "X-Request-Start": "1533134500828"
-  }, 
-  "origin": "183.2.198.167", 
-  "url": "https://httpbin.org/get?show_env=5"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 6}</t>
-  </si>
-  <si>
-    <t>3.109158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "6"
+    "show_env": "11"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -261,61 +421,29 @@
     "Content-Length": "2", 
     "Host": "httpbin.org", 
     "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
+    "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-For": "183.240.20.27", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "44ffc8f1-8def-4ed0-bd64-583088b096a3", 
-    "X-Request-Start": "1533134504200"
-  }, 
-  "origin": "183.2.198.164", 
-  "url": "https://httpbin.org/get?show_env=6"
+    "X-Request-Id": "00637df5-7f65-42d6-8d5d-58a9e76267ec", 
+    "X-Request-Start": "1533644935967"
+  }, 
+  "origin": "183.240.20.27", 
+  "url": "https://httpbin.org/get?show_env=11"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 7}</t>
-  </si>
-  <si>
-    <t>1.693949</t>
+    <t>{'show_env': 12}</t>
+  </si>
+  <si>
+    <t>2.326002</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "7"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "71", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.164", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "fb32d02b-0b98-4227-a1bc-7b95d9cef209", 
-    "X-Request-Start": "1533134505930"
-  }, 
-  "origin": "183.2.198.164", 
-  "url": "https://httpbin.org/get?show_env=7"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 8}</t>
-  </si>
-  <si>
-    <t>2.145183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "8"
+    "show_env": "12"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -325,143 +453,15 @@
     "Content-Length": "2", 
     "Host": "httpbin.org", 
     "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
+    "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.164", 
+    "X-Forwarded-For": "183.240.19.59", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "67d41248-710f-4f00-9f3d-9a6689193bdb", 
-    "X-Request-Start": "1533134508544"
-  }, 
-  "origin": "183.2.198.164", 
-  "url": "https://httpbin.org/get?show_env=8"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 9}</t>
-  </si>
-  <si>
-    <t>1.778264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "9"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.164", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "3ad6d6dc-a64a-43ac-b25c-1b80da1b76dc", 
-    "X-Request-Start": "1533134510557"
-  }, 
-  "origin": "183.2.198.164", 
-  "url": "https://httpbin.org/get?show_env=9"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 10}</t>
-  </si>
-  <si>
-    <t>22.408393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "10"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "ee2b0742-519f-426f-96e9-7fa731cc4f9c", 
-    "X-Request-Start": "1533134533235"
-  }, 
-  "origin": "183.240.20.27", 
-  "url": "https://httpbin.org/get?show_env=10"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 11}</t>
-  </si>
-  <si>
-    <t>3.299148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "11"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "2", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.165", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "5eb5f6a2-11f6-4cdd-92ba-44d5b6ed599a", 
-    "X-Request-Start": "1533134536728"
-  }, 
-  "origin": "183.2.198.165", 
-  "url": "https://httpbin.org/get?show_env=11"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 12}</t>
-  </si>
-  <si>
-    <t>1.425616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "12"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "13959957-eb54-4a7f-a50e-e9bed4d77219", 
-    "X-Request-Start": "1533132022394"
-  }, 
-  "origin": "183.240.20.27", 
+    "X-Request-Id": "abe388ca-ed1c-466b-a0ba-902571fd21c5", 
+    "X-Request-Start": "1533644829301"
+  }, 
+  "origin": "183.240.19.59", 
   "url": "https://httpbin.org/get?show_env=12"
 }
 </t>

--- a/test_data/backup_test.xlsx
+++ b/test_data/backup_test.xlsx
@@ -77,7 +77,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>1.074733</t>
+    <t>12.189655</t>
   </si>
   <si>
     <t>pass</t>
@@ -97,13 +97,13 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-For": "183.2.198.167", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "d2e562d6-b643-44d8-8d99-0ca075fc1512", 
-    "X-Request-Start": "1533644922679"
-  }, 
-  "origin": "183.240.20.27", 
+    "X-Request-Id": "bdcd2510-ad51-48ed-80e8-e58f49d3836e", 
+    "X-Request-Start": "1534051143546"
+  }, 
+  "origin": "183.2.198.167", 
   "url": "https://httpbin.org/get?show_env=1"
 }
 </t>
@@ -112,7 +112,7 @@
     <t>{'show_env': 2}</t>
   </si>
   <si>
-    <t>0.993629</t>
+    <t>0.973423</t>
   </si>
   <si>
     <t>fail</t>
@@ -132,13 +132,13 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-For": "183.2.198.167", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "84f60262-d489-4016-b4b7-18d8db494bce", 
-    "X-Request-Start": "1533644923905"
-  }, 
-  "origin": "183.240.20.27", 
+    "X-Request-Id": "99de6341-ce5c-4945-85d0-ef2d2268b24e", 
+    "X-Request-Start": "1534051144753"
+  }, 
+  "origin": "183.2.198.167", 
   "url": "https://httpbin.org/get?show_env=2"
 }
 </t>
@@ -150,7 +150,7 @@
     <t>close</t>
   </si>
   <si>
-    <t>0.976106</t>
+    <t>0.96962</t>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -167,13 +167,13 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
+    "X-Forwarded-For": "183.240.20.28", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "fd56ee7b-dc68-45a8-bc79-018afed343c3", 
-    "X-Request-Start": "1533644925097"
-  }, 
-  "origin": "183.240.20.27", 
+    "X-Request-Id": "41ecccbe-5606-49d6-8876-169ec745b69a", 
+    "X-Request-Start": "1534051145968"
+  }, 
+  "origin": "183.240.20.28", 
   "url": "https://httpbin.org/get?show_env=3"
 }
 </t>
@@ -182,12 +182,268 @@
     <t>{'show_env': 4}</t>
   </si>
   <si>
-    <t>1.029632</t>
+    <t>2.126891</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
     "show_env": "4"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.167", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "f40f3f9b-057b-49d4-b438-33114450ce1d", 
+    "X-Request-Start": "1534051148201"
+  }, 
+  "origin": "183.2.198.167", 
+  "url": "https://httpbin.org/get?show_env=4"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 5}</t>
+  </si>
+  <si>
+    <t>1.020114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "5"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.28", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "30dd2dd3-f1f7-4277-8277-20388cb75326", 
+    "X-Request-Start": "1534051149539"
+  }, 
+  "origin": "183.240.20.28", 
+  "url": "https://httpbin.org/get?show_env=5"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 6}</t>
+  </si>
+  <si>
+    <t>0.976729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "6"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.28", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "2f79e3f1-0266-408d-aaf6-4477a0758497", 
+    "X-Request-Start": "1534051150748"
+  }, 
+  "origin": "183.240.20.28", 
+  "url": "https://httpbin.org/get?show_env=6"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 7}</t>
+  </si>
+  <si>
+    <t>4.018017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "7"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.167", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "1c885f0b-097c-4e43-b0e4-ea53dc16f37c", 
+    "X-Request-Start": "1534051154974"
+  }, 
+  "origin": "183.2.198.167", 
+  "url": "https://httpbin.org/get?show_env=7"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 8}</t>
+  </si>
+  <si>
+    <t>0.948952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "8"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.28", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "a7b7efd7-6083-4302-80f8-9dc4830e87cb", 
+    "X-Request-Start": "1534051156157"
+  }, 
+  "origin": "183.240.20.28", 
+  "url": "https://httpbin.org/get?show_env=8"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 9}</t>
+  </si>
+  <si>
+    <t>0.993258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "9"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.240.20.28", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "ed3eab28-5570-4b32-989a-cfbc06a61821", 
+    "X-Request-Start": "1534051157420"
+  }, 
+  "origin": "183.240.20.28", 
+  "url": "https://httpbin.org/get?show_env=9"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 10}</t>
+  </si>
+  <si>
+    <t>1.431149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "10"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.167", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "53182001-3ed7-44ec-bbed-4f1f89e026c3", 
+    "X-Request-Start": "1534051159096"
+  }, 
+  "origin": "183.2.198.167", 
+  "url": "https://httpbin.org/get?show_env=10"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 11}</t>
+  </si>
+  <si>
+    <t>1.095668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "11"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.167", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "193fe11f-6be6-4fe4-a9ad-310fb06e93e0", 
+    "X-Request-Start": "1534051160393"
+  }, 
+  "origin": "183.2.198.167", 
+  "url": "https://httpbin.org/get?show_env=11"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 12}</t>
+  </si>
+  <si>
+    <t>1.001936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "12"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -202,264 +458,8 @@
     "X-Forwarded-For": "183.240.19.59", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "b0cb0a8f-3ff6-42a8-8595-226c110ad614", 
-    "X-Request-Start": "1533644926363"
-  }, 
-  "origin": "183.240.19.59", 
-  "url": "https://httpbin.org/get?show_env=4"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 5}</t>
-  </si>
-  <si>
-    <t>1.007777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "5"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.19.59", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "d5b91a19-59e8-4c27-9416-19882ff24c03", 
-    "X-Request-Start": "1533644927605"
-  }, 
-  "origin": "183.240.19.59", 
-  "url": "https://httpbin.org/get?show_env=5"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 6}</t>
-  </si>
-  <si>
-    <t>1.027611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "6"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.19.59", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "ab012f8c-c92e-42c4-93c4-4bdf71a8921e", 
-    "X-Request-Start": "1533644928860"
-  }, 
-  "origin": "183.240.19.59", 
-  "url": "https://httpbin.org/get?show_env=6"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 7}</t>
-  </si>
-  <si>
-    <t>0.981192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "7"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "3a689aa9-5f03-4d7c-8229-ce144a4ab10d", 
-    "X-Request-Start": "1533644930049"
-  }, 
-  "origin": "183.240.20.27", 
-  "url": "https://httpbin.org/get?show_env=7"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 8}</t>
-  </si>
-  <si>
-    <t>1.036124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "8"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.19.59", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "4d196d36-221b-482b-a6e3-04fe6e4df4ea", 
-    "X-Request-Start": "1533644931309"
-  }, 
-  "origin": "183.240.19.59", 
-  "url": "https://httpbin.org/get?show_env=8"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 9}</t>
-  </si>
-  <si>
-    <t>1.002032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "9"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.19.59", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "71c1bac0-3011-4d39-985e-f78a4fd5802a", 
-    "X-Request-Start": "1533644932552"
-  }, 
-  "origin": "183.240.19.59", 
-  "url": "https://httpbin.org/get?show_env=9"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 10}</t>
-  </si>
-  <si>
-    <t>0.971456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "10"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.19.59", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "01a6161d-e30b-422a-be57-14d90048310c", 
-    "X-Request-Start": "1533644933747"
-  }, 
-  "origin": "183.240.19.59", 
-  "url": "https://httpbin.org/get?show_env=10"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 11}</t>
-  </si>
-  <si>
-    <t>1.987692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "11"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "00637df5-7f65-42d6-8d5d-58a9e76267ec", 
-    "X-Request-Start": "1533644935967"
-  }, 
-  "origin": "183.240.20.27", 
-  "url": "https://httpbin.org/get?show_env=11"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 12}</t>
-  </si>
-  <si>
-    <t>2.326002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "12"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.19.59", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "abe388ca-ed1c-466b-a0ba-902571fd21c5", 
-    "X-Request-Start": "1533644829301"
+    "X-Request-Id": "a95a4568-33f0-404f-b119-2fe2222aa27e", 
+    "X-Request-Start": "1533644937258"
   }, 
   "origin": "183.240.19.59", 
   "url": "https://httpbin.org/get?show_env=12"

--- a/test_data/backup_test.xlsx
+++ b/test_data/backup_test.xlsx
@@ -77,7 +77,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>12.189655</t>
+    <t>1.9912</t>
   </si>
   <si>
     <t>pass</t>
@@ -97,13 +97,13 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.167", 
+    "X-Forwarded-For": "183.240.20.28", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "bdcd2510-ad51-48ed-80e8-e58f49d3836e", 
-    "X-Request-Start": "1534051143546"
-  }, 
-  "origin": "183.2.198.167", 
+    "X-Request-Id": "58f2da29-8801-4ad2-a76b-dd2acdb62891", 
+    "X-Request-Start": "1534082871337"
+  }, 
+  "origin": "183.240.20.28", 
   "url": "https://httpbin.org/get?show_env=1"
 }
 </t>
@@ -112,7 +112,7 @@
     <t>{'show_env': 2}</t>
   </si>
   <si>
-    <t>0.973423</t>
+    <t>0.99973</t>
   </si>
   <si>
     <t>fail</t>
@@ -121,41 +121,6 @@
     <t xml:space="preserve">{
   "args": {
     "show_env": "2"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.167", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "99de6341-ce5c-4945-85d0-ef2d2268b24e", 
-    "X-Request-Start": "1534051144753"
-  }, 
-  "origin": "183.2.198.167", 
-  "url": "https://httpbin.org/get?show_env=2"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 3}</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>0.96962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "3"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -170,56 +135,59 @@
     "X-Forwarded-For": "183.240.20.28", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "41ecccbe-5606-49d6-8876-169ec745b69a", 
-    "X-Request-Start": "1534051145968"
+    "X-Request-Id": "d7543b57-b934-4940-89a9-09b7ac984007", 
+    "X-Request-Start": "1534082872590"
   }, 
   "origin": "183.240.20.28", 
-  "url": "https://httpbin.org/get?show_env=3"
+  "url": "https://httpbin.org/get?show_env=2"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 4}</t>
-  </si>
-  <si>
-    <t>2.126891</t>
+    <t>{'show_env': 3}</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>1.047493</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "4"
+    "show_env": "3"
   }, 
   "headers": {
     "Accept": "*/*", 
     "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
+    "Connect-Time": "3", 
     "Connection": "close", 
     "Content-Length": "2", 
     "Host": "httpbin.org", 
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.167", 
+    "X-Forwarded-For": "183.2.198.166", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "f40f3f9b-057b-49d4-b438-33114450ce1d", 
-    "X-Request-Start": "1534051148201"
-  }, 
-  "origin": "183.2.198.167", 
-  "url": "https://httpbin.org/get?show_env=4"
+    "X-Request-Id": "fa857b28-532a-4ef8-a38f-175fbf2a0f89", 
+    "X-Request-Start": "1534082873917"
+  }, 
+  "origin": "183.2.198.166", 
+  "url": "https://httpbin.org/get?show_env=3"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 5}</t>
-  </si>
-  <si>
-    <t>1.020114</t>
+    <t>{'show_env': 4}</t>
+  </si>
+  <si>
+    <t>0.983752</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "5"
+    "show_env": "4"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -234,24 +202,24 @@
     "X-Forwarded-For": "183.240.20.28", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "30dd2dd3-f1f7-4277-8277-20388cb75326", 
-    "X-Request-Start": "1534051149539"
+    "X-Request-Id": "df99b224-a17b-48b5-9c9b-b06453673162", 
+    "X-Request-Start": "1534082875132"
   }, 
   "origin": "183.240.20.28", 
-  "url": "https://httpbin.org/get?show_env=5"
+  "url": "https://httpbin.org/get?show_env=4"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 6}</t>
-  </si>
-  <si>
-    <t>0.976729</t>
+    <t>{'show_env': 5}</t>
+  </si>
+  <si>
+    <t>1.004402</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "6"
+    "show_env": "5"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -266,10 +234,42 @@
     "X-Forwarded-For": "183.240.20.28", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "2f79e3f1-0266-408d-aaf6-4477a0758497", 
-    "X-Request-Start": "1534051150748"
+    "X-Request-Id": "57b600a8-1668-4ea2-bf85-5d4bc0c50dd1", 
+    "X-Request-Start": "1534082876428"
   }, 
   "origin": "183.240.20.28", 
+  "url": "https://httpbin.org/get?show_env=5"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 6}</t>
+  </si>
+  <si>
+    <t>1.046021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "6"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "183.2.198.166", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "938b55f2-d448-4b1e-ab29-e0947e4bbf8c", 
+    "X-Request-Start": "1534082877684"
+  }, 
+  "origin": "183.2.198.166", 
   "url": "https://httpbin.org/get?show_env=6"
 }
 </t>
@@ -438,7 +438,7 @@
     <t>{'show_env': 12}</t>
   </si>
   <si>
-    <t>1.001936</t>
+    <t>0.958662</t>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -455,13 +455,13 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.19.59", 
+    "X-Forwarded-For": "183.240.20.28", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "a95a4568-33f0-404f-b119-2fe2222aa27e", 
-    "X-Request-Start": "1533644937258"
-  }, 
-  "origin": "183.240.19.59", 
+    "X-Request-Id": "6eeecd75-a610-4429-bcfc-3c813f17248d", 
+    "X-Request-Start": "1534051161592"
+  }, 
+  "origin": "183.240.20.28", 
   "url": "https://httpbin.org/get?show_env=12"
 }
 </t>

--- a/test_data/backup_test.xlsx
+++ b/test_data/backup_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="test2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="test3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -77,7 +77,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>1.9912</t>
+    <t>0.917301</t>
   </si>
   <si>
     <t>pass</t>
@@ -86,6 +86,41 @@
     <t xml:space="preserve">{
   "args": {
     "show_env": "1"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "113.111.10.187", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "de97d49a-8273-48bb-83e0-9dc24169400d", 
+    "X-Request-Start": "1545983931708"
+  }, 
+  "origin": "113.111.10.187", 
+  "url": "https://httpbin.org/get?show_env=1"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 2}</t>
+  </si>
+  <si>
+    <t>0.9582</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "2"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -97,30 +132,30 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.28", 
+    "X-Forwarded-For": "113.111.10.187", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "58f2da29-8801-4ad2-a76b-dd2acdb62891", 
-    "X-Request-Start": "1534082871337"
-  }, 
-  "origin": "183.240.20.28", 
-  "url": "https://httpbin.org/get?show_env=1"
+    "X-Request-Id": "5baf9ec9-6bcf-490c-b2ec-4f07d0e0f547", 
+    "X-Request-Start": "1545983932824"
+  }, 
+  "origin": "113.111.10.187", 
+  "url": "https://httpbin.org/get?show_env=2"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 2}</t>
-  </si>
-  <si>
-    <t>0.99973</t>
-  </si>
-  <si>
-    <t>fail</t>
+    <t>{'show_env': 3}</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>0.910254</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "2"
+    "show_env": "3"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -132,62 +167,59 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.28", 
+    "X-Forwarded-For": "113.111.10.187", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "d7543b57-b934-4940-89a9-09b7ac984007", 
-    "X-Request-Start": "1534082872590"
-  }, 
-  "origin": "183.240.20.28", 
-  "url": "https://httpbin.org/get?show_env=2"
+    "X-Request-Id": "10cfc804-8efc-43bf-aee7-4745c6ae9dbe", 
+    "X-Request-Start": "1545983933870"
+  }, 
+  "origin": "113.111.10.187", 
+  "url": "https://httpbin.org/get?show_env=3"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 3}</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>1.047493</t>
+    <t>{'show_env': 4}</t>
+  </si>
+  <si>
+    <t>0.931203</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "3"
+    "show_env": "4"
   }, 
   "headers": {
     "Accept": "*/*", 
     "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "3", 
+    "Connect-Time": "1", 
     "Connection": "close", 
     "Content-Length": "2", 
     "Host": "httpbin.org", 
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.166", 
+    "X-Forwarded-For": "113.111.10.187", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "fa857b28-532a-4ef8-a38f-175fbf2a0f89", 
-    "X-Request-Start": "1534082873917"
-  }, 
-  "origin": "183.2.198.166", 
-  "url": "https://httpbin.org/get?show_env=3"
+    "X-Request-Id": "15153254-52ba-4945-b0ad-cbab91e43034", 
+    "X-Request-Start": "1545983934951"
+  }, 
+  "origin": "113.111.10.187", 
+  "url": "https://httpbin.org/get?show_env=4"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 4}</t>
-  </si>
-  <si>
-    <t>0.983752</t>
+    <t>{'show_env': 5}</t>
+  </si>
+  <si>
+    <t>0.918362</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "4"
+    "show_env": "5"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -199,27 +231,27 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.28", 
+    "X-Forwarded-For": "113.111.10.187", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "df99b224-a17b-48b5-9c9b-b06453673162", 
-    "X-Request-Start": "1534082875132"
-  }, 
-  "origin": "183.240.20.28", 
-  "url": "https://httpbin.org/get?show_env=4"
+    "X-Request-Id": "cfc2d4aa-ecf8-45fe-99e4-af15078f189c", 
+    "X-Request-Start": "1545983936009"
+  }, 
+  "origin": "113.111.10.187", 
+  "url": "https://httpbin.org/get?show_env=5"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 5}</t>
-  </si>
-  <si>
-    <t>1.004402</t>
+    <t>{'show_env': 6}</t>
+  </si>
+  <si>
+    <t>0.939287</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "5"
+    "show_env": "6"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -231,27 +263,59 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.28", 
+    "X-Forwarded-For": "113.111.10.187", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "57b600a8-1668-4ea2-bf85-5d4bc0c50dd1", 
-    "X-Request-Start": "1534082876428"
-  }, 
-  "origin": "183.240.20.28", 
-  "url": "https://httpbin.org/get?show_env=5"
+    "X-Request-Id": "aa083666-285f-4fea-a648-1d959461d055", 
+    "X-Request-Start": "1545983937076"
+  }, 
+  "origin": "113.111.10.187", 
+  "url": "https://httpbin.org/get?show_env=6"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 6}</t>
-  </si>
-  <si>
-    <t>1.046021</t>
+    <t>{'show_env': 7}</t>
+  </si>
+  <si>
+    <t>0.965328</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "6"
+    "show_env": "7"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "113.111.10.187", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "3ca6081b-377d-48e8-84b6-e84ab548d838", 
+    "X-Request-Start": "1545983938217"
+  }, 
+  "origin": "113.111.10.187", 
+  "url": "https://httpbin.org/get?show_env=7"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 8}</t>
+  </si>
+  <si>
+    <t>0.906918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "8"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -263,27 +327,59 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.166", 
+    "X-Forwarded-For": "113.111.10.187", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "938b55f2-d448-4b1e-ab29-e0947e4bbf8c", 
-    "X-Request-Start": "1534082877684"
-  }, 
-  "origin": "183.2.198.166", 
-  "url": "https://httpbin.org/get?show_env=6"
+    "X-Request-Id": "31941628-9e5a-4b74-a591-b6d5ba8f1f27", 
+    "X-Request-Start": "1545983939269"
+  }, 
+  "origin": "113.111.10.187", 
+  "url": "https://httpbin.org/get?show_env=8"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 7}</t>
-  </si>
-  <si>
-    <t>4.018017</t>
+    <t>{'show_env': 9}</t>
+  </si>
+  <si>
+    <t>1.039194</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "7"
+    "show_env": "9"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "113.111.10.187", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "570c1a7d-1290-4812-8e34-2f16ee56617a", 
+    "X-Request-Start": "1545983940456"
+  }, 
+  "origin": "113.111.10.187", 
+  "url": "https://httpbin.org/get?show_env=9"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 10}</t>
+  </si>
+  <si>
+    <t>0.939471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "10"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -295,109 +391,13 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.167", 
+    "X-Forwarded-For": "113.111.10.187", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "1c885f0b-097c-4e43-b0e4-ea53dc16f37c", 
-    "X-Request-Start": "1534051154974"
-  }, 
-  "origin": "183.2.198.167", 
-  "url": "https://httpbin.org/get?show_env=7"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 8}</t>
-  </si>
-  <si>
-    <t>0.948952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "8"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.28", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "a7b7efd7-6083-4302-80f8-9dc4830e87cb", 
-    "X-Request-Start": "1534051156157"
-  }, 
-  "origin": "183.240.20.28", 
-  "url": "https://httpbin.org/get?show_env=8"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 9}</t>
-  </si>
-  <si>
-    <t>0.993258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "9"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.28", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "ed3eab28-5570-4b32-989a-cfbc06a61821", 
-    "X-Request-Start": "1534051157420"
-  }, 
-  "origin": "183.240.20.28", 
-  "url": "https://httpbin.org/get?show_env=9"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 10}</t>
-  </si>
-  <si>
-    <t>1.431149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "10"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.167", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "53182001-3ed7-44ec-bbed-4f1f89e026c3", 
-    "X-Request-Start": "1534051159096"
-  }, 
-  "origin": "183.2.198.167", 
+    "X-Request-Id": "e9aeda83-4bec-49f4-9472-91da2ccf84f2", 
+    "X-Request-Start": "1545983941553"
+  }, 
+  "origin": "113.111.10.187", 
   "url": "https://httpbin.org/get?show_env=10"
 }
 </t>
